--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H2">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I2">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J2">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>91.45958973706576</v>
+        <v>115.9165498749918</v>
       </c>
       <c r="R2">
-        <v>823.1363076335919</v>
+        <v>1043.248948874926</v>
       </c>
       <c r="S2">
-        <v>0.03434280546858573</v>
+        <v>0.03399502507490375</v>
       </c>
       <c r="T2">
-        <v>0.03434280546858573</v>
+        <v>0.03399502507490375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H3">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I3">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J3">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>100.5565711406409</v>
+        <v>134.2936111809791</v>
       </c>
       <c r="R3">
-        <v>905.0091402657681</v>
+        <v>1208.642500628812</v>
       </c>
       <c r="S3">
-        <v>0.03775869508270359</v>
+        <v>0.03938449414186452</v>
       </c>
       <c r="T3">
-        <v>0.03775869508270358</v>
+        <v>0.03938449414186451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H4">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I4">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J4">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>55.73671893375266</v>
+        <v>101.9345634209885</v>
       </c>
       <c r="R4">
-        <v>501.630470403774</v>
+        <v>917.411070788896</v>
       </c>
       <c r="S4">
-        <v>0.02092897312684269</v>
+        <v>0.02989450637750113</v>
       </c>
       <c r="T4">
-        <v>0.02092897312684269</v>
+        <v>0.02989450637750113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H5">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I5">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J5">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>40.56244966129111</v>
+        <v>52.31817731046033</v>
       </c>
       <c r="R5">
-        <v>365.0620469516201</v>
+        <v>470.863595794143</v>
       </c>
       <c r="S5">
-        <v>0.01523107989060299</v>
+        <v>0.01534343242151716</v>
       </c>
       <c r="T5">
-        <v>0.01523107989060299</v>
+        <v>0.01534343242151716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.701028</v>
       </c>
       <c r="I6">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J6">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>649.9921159877173</v>
+        <v>616.8497458773948</v>
       </c>
       <c r="R6">
-        <v>5849.929043889456</v>
+        <v>5551.647712896553</v>
       </c>
       <c r="S6">
-        <v>0.2440701173015862</v>
+        <v>0.1809044748240401</v>
       </c>
       <c r="T6">
-        <v>0.2440701173015862</v>
+        <v>0.1809044748240401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.701028</v>
       </c>
       <c r="I7">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J7">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>714.6432499870027</v>
@@ -883,10 +883,10 @@
         <v>6431.789249883025</v>
       </c>
       <c r="S7">
-        <v>0.2683464269225238</v>
+        <v>0.2095845263607194</v>
       </c>
       <c r="T7">
-        <v>0.2683464269225238</v>
+        <v>0.2095845263607195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.701028</v>
       </c>
       <c r="I8">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J8">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>396.114043175948</v>
+        <v>542.4446259845547</v>
       </c>
       <c r="R8">
-        <v>3565.026388583532</v>
+        <v>4882.001633860992</v>
       </c>
       <c r="S8">
-        <v>0.1487396517661549</v>
+        <v>0.159083570741007</v>
       </c>
       <c r="T8">
-        <v>0.1487396517661549</v>
+        <v>0.159083570741007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12.701028</v>
       </c>
       <c r="I9">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J9">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>288.2723677285734</v>
+        <v>278.411101896404</v>
       </c>
       <c r="R9">
-        <v>2594.451309557161</v>
+        <v>2505.699917067636</v>
       </c>
       <c r="S9">
-        <v>0.1082454215608493</v>
+        <v>0.08165005256200916</v>
       </c>
       <c r="T9">
-        <v>0.1082454215608493</v>
+        <v>0.08165005256200918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H10">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I10">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J10">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>95.8408473047071</v>
+        <v>242.7913984571082</v>
       </c>
       <c r="R10">
-        <v>862.5676257423639</v>
+        <v>2185.122586113974</v>
       </c>
       <c r="S10">
-        <v>0.03598795472833904</v>
+        <v>0.07120380728568443</v>
       </c>
       <c r="T10">
-        <v>0.03598795472833905</v>
+        <v>0.07120380728568443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H11">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I11">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J11">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>105.3736082556396</v>
+        <v>281.2828167992209</v>
       </c>
       <c r="R11">
-        <v>948.3624743007562</v>
+        <v>2531.545351192988</v>
       </c>
       <c r="S11">
-        <v>0.03956747827373853</v>
+        <v>0.08249224481354285</v>
       </c>
       <c r="T11">
-        <v>0.03956747827373853</v>
+        <v>0.08249224481354286</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H12">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I12">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J12">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>58.40671693315367</v>
+        <v>213.5056230606116</v>
       </c>
       <c r="R12">
-        <v>525.660452398383</v>
+        <v>1921.550607545504</v>
       </c>
       <c r="S12">
-        <v>0.02193154947950897</v>
+        <v>0.06261512283971395</v>
       </c>
       <c r="T12">
-        <v>0.02193154947950897</v>
+        <v>0.06261512283971395</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H13">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I13">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J13">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>42.50554321825445</v>
+        <v>109.5823111335897</v>
       </c>
       <c r="R13">
-        <v>382.5498889642901</v>
+        <v>986.2408002023069</v>
       </c>
       <c r="S13">
-        <v>0.01596070577484212</v>
+        <v>0.03213737312549175</v>
       </c>
       <c r="T13">
-        <v>0.01596070577484212</v>
+        <v>0.03213737312549175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H14">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I14">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J14">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>7.509564824825333</v>
+        <v>1.672401714198889</v>
       </c>
       <c r="R14">
-        <v>67.58608342342799</v>
+        <v>15.05161542779</v>
       </c>
       <c r="S14">
-        <v>0.002819819383337905</v>
+        <v>0.0004904678259559636</v>
       </c>
       <c r="T14">
-        <v>0.002819819383337905</v>
+        <v>0.0004904678259559636</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H15">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I15">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J15">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>8.256499856534669</v>
+        <v>1.937539253775556</v>
       </c>
       <c r="R15">
-        <v>74.30849870881201</v>
+        <v>17.43785328398</v>
       </c>
       <c r="S15">
-        <v>0.003100291278799182</v>
+        <v>0.0005682251204572869</v>
       </c>
       <c r="T15">
-        <v>0.003100291278799181</v>
+        <v>0.0005682251204572869</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H16">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I16">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J16">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>4.576431024449001</v>
+        <v>1.470674711982222</v>
       </c>
       <c r="R16">
-        <v>41.187879220041</v>
+        <v>13.23607240784</v>
       </c>
       <c r="S16">
-        <v>0.001718436315589085</v>
+        <v>0.0004313070373883576</v>
       </c>
       <c r="T16">
-        <v>0.001718436315589084</v>
+        <v>0.0004313070373883576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H17">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I17">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J17">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>3.330501985203334</v>
+        <v>0.7548275851216666</v>
       </c>
       <c r="R17">
-        <v>29.97451786683001</v>
+        <v>6.793448266095</v>
       </c>
       <c r="S17">
-        <v>0.001250593645996014</v>
+        <v>0.0002213694482031522</v>
       </c>
       <c r="T17">
-        <v>0.001250593645996014</v>
+        <v>0.0002213694482031522</v>
       </c>
     </row>
   </sheetData>
